--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>362445.1730451714</v>
+        <v>359713.5935833466</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>214.55085964152</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>137.1219145533005</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>26.84748924686318</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>241.3731239381478</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>11.48820018246344</v>
+        <v>223.8243835520302</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>350.666752269543</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>285.0120783583006</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>20.03703365443101</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>70.03418953493001</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>61.26333917906086</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>98.5845699899718</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>9.579478589972654</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>26.67150638315057</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.7243167060843</v>
+        <v>179.8319801819382</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>121.8000472740338</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181939</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892427999</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>164.0001714587641</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="G19" t="n">
-        <v>60.46574022124103</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016461</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>1.294096136280004</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>99.97427419833815</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2956,13 +2956,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>179.6926686226135</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>72.26558381699965</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.2078024559165</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,10 +3433,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>137.3021949834108</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0.6197054599889589</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,10 +4141,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>72.8097849205479</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>617.3592750686544</v>
+        <v>1162.307622620819</v>
       </c>
       <c r="C2" t="n">
-        <v>617.3592750686544</v>
+        <v>1162.307622620819</v>
       </c>
       <c r="D2" t="n">
-        <v>617.3592750686544</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="E2" t="n">
-        <v>617.3592750686544</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F2" t="n">
-        <v>206.3733702790468</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
-        <v>192.4499662176377</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>192.4499662176377</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.03041501129</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2451.395747983353</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2451.395747983353</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2120.332860639782</v>
+        <v>1925.91271285771</v>
       </c>
       <c r="W2" t="n">
-        <v>1767.564205369668</v>
+        <v>1925.91271285771</v>
       </c>
       <c r="X2" t="n">
-        <v>1394.098447108588</v>
+        <v>1552.446954596631</v>
       </c>
       <c r="Y2" t="n">
-        <v>1003.959115132776</v>
+        <v>1162.307622620819</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,19 +4419,19 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>568.3780830320693</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>568.3780830320693</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>340.388532134052</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.714918859356</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>940.7524019189439</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D5" t="n">
-        <v>582.4867033121934</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>288.8387344486664</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>288.8387344486664</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>288.8387344486664</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>119.8389341869988</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1034.912596435357</v>
+        <v>977.7745109474504</v>
       </c>
       <c r="C8" t="n">
-        <v>665.9500794949456</v>
+        <v>977.7745109474504</v>
       </c>
       <c r="D8" t="n">
-        <v>665.9500794949456</v>
+        <v>977.7745109474504</v>
       </c>
       <c r="E8" t="n">
-        <v>280.1618268967014</v>
+        <v>915.8923501605202</v>
       </c>
       <c r="F8" t="n">
-        <v>273.2163261474979</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4802,16 +4802,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4481930755664</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>605.9153060956119</v>
+        <v>625.4041588585299</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1178.217417104729</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1809.935228088041</v>
       </c>
       <c r="N8" t="n">
         <v>2004.269440980023</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285934</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2151.286341942363</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>1798.517686672249</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="X8" t="n">
-        <v>1425.051928411169</v>
+        <v>1367.913842923262</v>
       </c>
       <c r="Y8" t="n">
-        <v>1034.912596435357</v>
+        <v>977.7745109474504</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>592.9687148475971</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>512.155374631218</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>343.2191917033111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>343.2191917033111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>343.2191917033111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>1044.201422279737</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>1044.201422279737</v>
       </c>
       <c r="T10" t="n">
-        <v>828.2484665920741</v>
+        <v>818.5722255921016</v>
       </c>
       <c r="U10" t="n">
-        <v>539.096290169754</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V10" t="n">
-        <v>512.155374631218</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>512.155374631218</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>512.155374631218</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>512.155374631218</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5042,7 +5042,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2072.35525930079</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2495.978408795858</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.885660588916</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900008</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>443.494946977665</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>443.494946977665</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>296.6049994797546</v>
+        <v>93.81666304797035</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614378</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179076</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5829,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5993,16 +5993,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>924.8344286397182</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2043.199616443682</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6309,13 +6309,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6364,10 +6364,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
         <v>93.81666304797187</v>
@@ -6540,16 +6540,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.923811518856</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397185</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612593</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,31 +7166,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7254,25 +7254,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>558.0193492433381</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
         <v>407.9027098310023</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,13 +7421,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368208</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>481.447947124485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>128.5565265270895</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>303.2910337877138</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,16 +8532,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>73.09871788457451</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>176.8008973295432</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>140.132181979163</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>147.5682235621084</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22714,13 +22714,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>240.6494431413646</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.107663475853</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>45.44677382459402</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909865126</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>54.58448189333066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>105.0583980710278</v>
+        <v>165.5241382922704</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459444</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>284.8903782529641</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>45.44677382459309</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>72.44497470121453</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>213.9188905722445</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>73.6241777260208</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>29.94462611521706</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>285.9032928766021</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>73.62417772602127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1041293.01506569</v>
+        <v>1041293.015065691</v>
       </c>
     </row>
     <row r="3">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019029</v>
+        <v>335917.9865019031</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389276</v>
@@ -26323,37 +26323,37 @@
         <v>363215.9698605028</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="G2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="J2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="L2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="M2" t="n">
         <v>363215.9698605028</v>
-      </c>
-      <c r="L2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="M2" t="n">
-        <v>363215.9698605027</v>
       </c>
       <c r="N2" t="n">
         <v>363215.9698605025</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167367.5317503681</v>
+        <v>167367.5317503682</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682754</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682752</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682747</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="H4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682775</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682744</v>
-      </c>
       <c r="L4" t="n">
+        <v>5677.536566682754</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682748</v>
+      </c>
+      <c r="N4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="M4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682762</v>
-      </c>
       <c r="O4" t="n">
-        <v>5677.536566682766</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-504276.502526419</v>
+        <v>-504462.8959149581</v>
       </c>
       <c r="C6" t="n">
-        <v>76687.30291248453</v>
+        <v>76687.30291248477</v>
       </c>
       <c r="D6" t="n">
-        <v>-79116.5031813102</v>
+        <v>-79116.50318131017</v>
       </c>
       <c r="E6" t="n">
-        <v>-514636.7879108934</v>
+        <v>-514671.5258363292</v>
       </c>
       <c r="F6" t="n">
-        <v>256415.9034699127</v>
+        <v>256381.1655444769</v>
       </c>
       <c r="G6" t="n">
-        <v>256415.9034699128</v>
+        <v>256381.1655444772</v>
       </c>
       <c r="H6" t="n">
-        <v>256415.9034699129</v>
+        <v>256381.1655444772</v>
       </c>
       <c r="I6" t="n">
-        <v>256415.9034699128</v>
+        <v>256381.1655444769</v>
       </c>
       <c r="J6" t="n">
-        <v>79992.6842773198</v>
+        <v>79957.94635188405</v>
       </c>
       <c r="K6" t="n">
-        <v>256415.9034699129</v>
+        <v>256381.1655444771</v>
       </c>
       <c r="L6" t="n">
-        <v>256415.9034699127</v>
+        <v>256381.1655444771</v>
       </c>
       <c r="M6" t="n">
-        <v>132207.3927618543</v>
+        <v>132172.6548364187</v>
       </c>
       <c r="N6" t="n">
-        <v>256415.9034699128</v>
+        <v>256381.1655444769</v>
       </c>
       <c r="O6" t="n">
-        <v>256415.9034699128</v>
+        <v>256381.1655444768</v>
       </c>
       <c r="P6" t="n">
-        <v>256415.9034699129</v>
+        <v>256381.1655444772</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,31 +26972,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14.80940169156071</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>86.37913453198712</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>28.31325977179779</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>31.26361780271878</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>121.8639673834109</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>136.1338551873641</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>216.2476847070477</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>320.6670308932009</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>314.332333955965</v>
-      </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28029,10 +28029,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>119.5937030778187</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>225.4661369406774</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P12" t="n">
-        <v>307.4654529393634</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>160.6314956130963</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>161.7871425275301</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,28 +32549,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>691.6611968462892</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,10 +32795,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>555.0107214892114</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,16 +33029,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
-        <v>535.8585467435948</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33260,19 +33260,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>528.7932908500043</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O33" t="n">
-        <v>200.3460366764701</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>707.690770008912</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33974,7 +33974,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078237</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,16 +34445,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>227.8611086463993</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>150.0052638941434</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>386.6881596206354</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>211.7144734559826</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>377.4642727362752</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35422,7 +35422,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P12" t="n">
-        <v>173.4910455250332</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.64972152707474</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>23.94570355317107</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36197,28 +36197,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>560.3194847629559</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36291,7 +36291,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060439</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,10 +36443,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>423.6690094058781</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36677,16 +36677,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
-        <v>393.2623022991504</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36908,19 +36908,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>386.659256927986</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O33" t="n">
-        <v>57.74979223202568</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>576.3490579255787</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37622,7 +37622,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38093,16 +38093,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>90.01966967204031</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
